--- a/DATA_goal/Junction_Flooding_285.xlsx
+++ b/DATA_goal/Junction_Flooding_285.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="5" max="5"/>
+    <col width="6" customWidth="1" min="6" max="6"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="6" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="6" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="6" customWidth="1" min="15" max="15"/>
+    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="20" max="20"/>
+    <col width="6" customWidth="1" min="21" max="21"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="6" customWidth="1" min="23" max="23"/>
+    <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="6" customWidth="1" min="26" max="26"/>
+    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
+    <col width="6" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="6" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>41717.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>16.24</v>
+        <v>1.62</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>10.8</v>
+        <v>1.08</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.75</v>
+        <v>0.37</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>34.58</v>
+        <v>3.46</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>26.88</v>
+        <v>2.69</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>12.74</v>
+        <v>1.27</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>38.93</v>
+        <v>3.89</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>19.66</v>
+        <v>1.97</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>8.039999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>12</v>
+        <v>1.2</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>13.64</v>
+        <v>1.36</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>14.23</v>
+        <v>1.42</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>4.08</v>
+        <v>0.41</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>12.71</v>
+        <v>1.27</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>17.59</v>
+        <v>1.76</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>11.09</v>
+        <v>1.11</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.15</v>
+        <v>0.31</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.02</v>
+        <v>0.2</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>186.05</v>
+        <v>18.61</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>35.26</v>
+        <v>3.53</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>11.73</v>
+        <v>1.17</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>22.89</v>
+        <v>2.29</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>11.59</v>
+        <v>1.16</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>3.17</v>
+        <v>0.32</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>19.92</v>
+        <v>1.99</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>10.36</v>
+        <v>1.04</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>9.289999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>11.16</v>
+        <v>1.12</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>14.36</v>
+        <v>1.44</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.31</v>
+        <v>0.33</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>34.9</v>
+        <v>3.49</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>6.28</v>
+        <v>0.63</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>14.66</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41717.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>17.87</v>
+        <v>1.79</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>12.75</v>
+        <v>1.27</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.83</v>
+        <v>0.18</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>38.73</v>
+        <v>3.87</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>31.03</v>
+        <v>3.1</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>14.02</v>
+        <v>1.4</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>53.17</v>
+        <v>5.32</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>21.64</v>
+        <v>2.16</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>9.369999999999999</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>13.79</v>
+        <v>1.38</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>15.48</v>
+        <v>1.55</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>16.24</v>
+        <v>1.62</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>4.49</v>
+        <v>0.45</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>13.99</v>
+        <v>1.4</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>19.72</v>
+        <v>1.97</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>12.05</v>
+        <v>1.21</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.5</v>
+        <v>0.15</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>1.11</v>
+        <v>0.11</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>205.56</v>
+        <v>20.56</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>39.11</v>
+        <v>3.91</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>12.91</v>
+        <v>1.29</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>25.93</v>
+        <v>2.59</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>13.49</v>
+        <v>1.35</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.53</v>
+        <v>0.25</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>26.09</v>
+        <v>2.61</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>11.4</v>
+        <v>1.14</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>10.21</v>
+        <v>1.02</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>12.08</v>
+        <v>1.21</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>16.26</v>
+        <v>1.63</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.25</v>
+        <v>0.12</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>48.63</v>
+        <v>4.86</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>7.11</v>
+        <v>0.71</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>16.14</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41717.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>8.07</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>5.61</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.03</v>
+        <v>0.1</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>17.5</v>
+        <v>1.75</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>13.75</v>
+        <v>1.38</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>6.31</v>
+        <v>0.63</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>28.04</v>
+        <v>2.8</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>9.77</v>
+        <v>0.98</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>4.19</v>
+        <v>0.42</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>6.03</v>
+        <v>0.6</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>7</v>
+        <v>0.7</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>7.32</v>
+        <v>0.73</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>2.03</v>
+        <v>0.2</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>6.32</v>
+        <v>0.63</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>8.869999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>5.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.95</v>
+        <v>0.09</v>
       </c>
       <c r="S4" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="V4" s="4" t="n">
         <v>0.58</v>
       </c>
-      <c r="T4" s="4" t="n">
-        <v>88.83</v>
-      </c>
-      <c r="U4" s="4" t="n">
-        <v>17.82</v>
-      </c>
-      <c r="V4" s="4" t="n">
-        <v>5.83</v>
-      </c>
       <c r="W4" s="4" t="n">
-        <v>11.69</v>
+        <v>1.17</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>6.04</v>
+        <v>0.6</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.29</v>
+        <v>0.13</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>13.15</v>
+        <v>1.32</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>5.15</v>
+        <v>0.51</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>4.68</v>
+        <v>0.47</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>5.53</v>
+        <v>0.55</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>7.34</v>
+        <v>0.73</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.77</v>
+        <v>0.08</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>25.85</v>
+        <v>2.59</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>3.14</v>
+        <v>0.31</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>7.29</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41717.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>15.18</v>
+        <v>1.52</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>11.07</v>
+        <v>1.11</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.06</v>
+        <v>0.11</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>32.99</v>
+        <v>3.3</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>26.72</v>
+        <v>2.67</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>11.91</v>
+        <v>1.19</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>44.73</v>
+        <v>4.47</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>18.38</v>
+        <v>1.84</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>8.09</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>11.92</v>
+        <v>1.19</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>13.23</v>
+        <v>1.32</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>13.94</v>
+        <v>1.39</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.82</v>
+        <v>0.38</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>11.88</v>
+        <v>1.19</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>16.83</v>
+        <v>1.68</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>10.12</v>
+        <v>1.01</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.78</v>
+        <v>0.08</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.68</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>173.5</v>
+        <v>17.35</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>33.17</v>
+        <v>3.32</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>10.97</v>
+        <v>1.1</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>22.17</v>
+        <v>2.22</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>11.62</v>
+        <v>1.16</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.9</v>
+        <v>0.19</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>21.84</v>
+        <v>2.18</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>9.69</v>
+        <v>0.97</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>8.630000000000001</v>
+        <v>0.86</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>10.16</v>
+        <v>1.02</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>13.9</v>
+        <v>1.39</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.55</v>
+        <v>0.06</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>40.56</v>
+        <v>4.06</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>6.11</v>
+        <v>0.61</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>13.71</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41717.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>5.67</v>
+        <v>0.57</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>3.99</v>
+        <v>0.4</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.62</v>
+        <v>0.06</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>12.31</v>
+        <v>1.23</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>9.720000000000001</v>
+        <v>0.97</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>4.43</v>
+        <v>0.44</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>21.13</v>
+        <v>2.11</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>6.86</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>2.99</v>
+        <v>0.3</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>4.26</v>
+        <v>0.43</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>4.94</v>
+        <v>0.49</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>5.19</v>
+        <v>0.52</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>1.43</v>
+        <v>0.14</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>4.44</v>
+        <v>0.44</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>6.28</v>
+        <v>0.63</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>3.91</v>
+        <v>0.39</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.57</v>
+        <v>0.06</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.35</v>
+        <v>0.03</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>60.23</v>
+        <v>6.02</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>12.61</v>
+        <v>1.26</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>4.09</v>
+        <v>0.41</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>8.33</v>
+        <v>0.83</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>4.29</v>
+        <v>0.43</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>0.85</v>
+        <v>0.09</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>9.859999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>3.62</v>
+        <v>0.36</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>3.29</v>
+        <v>0.33</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>3.86</v>
+        <v>0.39</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>5.18</v>
+        <v>0.52</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.43</v>
+        <v>0.04</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>19.59</v>
+        <v>1.96</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>2.22</v>
+        <v>0.22</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>5.12</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41717.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>15.66</v>
+        <v>1.57</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>11.54</v>
+        <v>1.15</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0.88</v>
+        <v>0.09</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>34.06</v>
+        <v>3.41</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>27.77</v>
+        <v>2.78</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>12.29</v>
+        <v>1.23</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>45.14</v>
+        <v>4.51</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>18.96</v>
+        <v>1.9</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>8.4</v>
+        <v>0.84</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>12.43</v>
+        <v>1.24</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>13.67</v>
+        <v>1.37</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>14.43</v>
+        <v>1.44</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>3.94</v>
+        <v>0.39</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>12.26</v>
+        <v>1.23</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>17.41</v>
+        <v>1.74</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>10.35</v>
+        <v>1.03</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.57</v>
+        <v>0.06</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>0.61</v>
+        <v>0.06</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>179.22</v>
+        <v>17.92</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>34.18</v>
+        <v>3.42</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>11.31</v>
+        <v>1.13</v>
       </c>
       <c r="W7" s="4" t="n">
-        <v>22.95</v>
+        <v>2.3</v>
       </c>
       <c r="X7" s="4" t="n">
-        <v>12.06</v>
+        <v>1.21</v>
       </c>
       <c r="Y7" s="4" t="n">
-        <v>1.83</v>
+        <v>0.18</v>
       </c>
       <c r="Z7" s="4" t="n">
-        <v>22.22</v>
+        <v>2.22</v>
       </c>
       <c r="AA7" s="4" t="n">
-        <v>9.99</v>
+        <v>1</v>
       </c>
       <c r="AB7" s="4" t="n">
-        <v>8.859999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>10.43</v>
+        <v>1.04</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>14.36</v>
+        <v>1.44</v>
       </c>
       <c r="AE7" s="4" t="n">
-        <v>0.36</v>
+        <v>0.04</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>40.85</v>
+        <v>4.08</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>6.35</v>
+        <v>0.64</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>14.14</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41717.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>4.32</v>
+        <v>0.43</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>3.06</v>
+        <v>0.31</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>0.44</v>
+        <v>0.04</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>9.4</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>7.43</v>
+        <v>0.74</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>3.37</v>
+        <v>0.34</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>17.86</v>
+        <v>1.79</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>5.24</v>
+        <v>0.52</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>2.32</v>
+        <v>0.23</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>3.26</v>
+        <v>0.33</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>3.77</v>
+        <v>0.38</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>3.98</v>
+        <v>0.4</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>1.1</v>
+        <v>0.11</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>3.38</v>
+        <v>0.34</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>4.84</v>
+        <v>0.48</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>2.98</v>
+        <v>0.3</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>0.41</v>
+        <v>0.04</v>
       </c>
       <c r="S8" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="T8" s="4" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="U8" s="4" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="V8" s="4" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="W8" s="4" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="X8" s="4" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="Y8" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="Z8" s="4" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AA8" s="4" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="AB8" s="4" t="n">
         <v>0.25</v>
       </c>
-      <c r="T8" s="4" t="n">
-        <v>44.23</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>9.74</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>6.48</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>3.31</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>8.279999999999999</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>2.51</v>
-      </c>
       <c r="AC8" s="4" t="n">
-        <v>2.94</v>
+        <v>0.29</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>3.96</v>
+        <v>0.4</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>16.71</v>
+        <v>1.67</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>1.69</v>
+        <v>0.17</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>3.91</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41717.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>10.67</v>
+        <v>1.07</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>7.85</v>
+        <v>0.78</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.62</v>
+        <v>0.06</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>23.19</v>
+        <v>2.32</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>18.88</v>
+        <v>1.89</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>8.359999999999999</v>
+        <v>0.84</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>30.76</v>
+        <v>3.08</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>12.91</v>
+        <v>1.29</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>5.71</v>
+        <v>0.57</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>8.44</v>
+        <v>0.84</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>9.31</v>
+        <v>0.93</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>9.84</v>
+        <v>0.98</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>2.68</v>
+        <v>0.27</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>8.35</v>
+        <v>0.83</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>11.84</v>
+        <v>1.18</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>7.07</v>
+        <v>0.71</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.42</v>
+        <v>0.04</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.42</v>
+        <v>0.04</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>119.69</v>
+        <v>11.97</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>23.24</v>
+        <v>2.32</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>7.7</v>
+        <v>0.77</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>15.58</v>
+        <v>1.56</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>8.199999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>1.26</v>
+        <v>0.13</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>15.01</v>
+        <v>1.5</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>6.8</v>
+        <v>0.68</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>6.04</v>
+        <v>0.6</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>7.11</v>
+        <v>0.71</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>9.779999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="AE9" s="4" t="n">
-        <v>0.26</v>
+        <v>0.03</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>27.74</v>
+        <v>2.77</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>4.32</v>
+        <v>0.43</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>9.630000000000001</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41717.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>0.77</v>
+        <v>0.08</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>0.43</v>
+        <v>0.04</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0.26</v>
+        <v>0.03</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>1.67</v>
+        <v>0.17</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>1.11</v>
+        <v>0.11</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>0.59</v>
+        <v>0.06</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>8.09</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>0.93</v>
+        <v>0.09</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>0.52</v>
+        <v>0.05</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>0.42</v>
+        <v>0.04</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>0.67</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>0.71</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>0.24</v>
+        <v>0.02</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>0.6</v>
+        <v>0.06</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>1.02</v>
+        <v>0.1</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>0.64</v>
+        <v>0.06</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0.11</v>
+        <v>0.01</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>1.99</v>
+        <v>0.2</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>2.19</v>
+        <v>0.22</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>1.59</v>
+        <v>0.16</v>
       </c>
       <c r="X10" s="4" t="n">
-        <v>0.7</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Y10" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="Z10" s="4" t="n">
-        <v>3.62</v>
+        <v>0.36</v>
       </c>
       <c r="AA10" s="4" t="n">
-        <v>0.49</v>
+        <v>0.05</v>
       </c>
       <c r="AB10" s="4" t="n">
-        <v>0.52</v>
+        <v>0.05</v>
       </c>
       <c r="AC10" s="4" t="n">
-        <v>0.58</v>
+        <v>0.06</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>0.7</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AE10" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>7.92</v>
+        <v>0.79</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>0.25</v>
+        <v>0.02</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>0.71</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_285.xlsx
+++ b/DATA_goal/Junction_Flooding_285.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH11"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
     <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
     <col width="6" customWidth="1" min="11" max="11"/>
     <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
     <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
     <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="6" customWidth="1" min="26" max="26"/>
     <col width="6" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
     <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="6" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,159 +652,159 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>41717.34027777778</v>
+        <v>44966.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.62</v>
+        <v>1.78</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.08</v>
+        <v>1.18</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.37</v>
+        <v>0.4</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>3.46</v>
+        <v>3.78</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>2.69</v>
+        <v>2.99</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.27</v>
+        <v>1.4</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>3.89</v>
+        <v>4.36</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.97</v>
+        <v>2.15</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.8</v>
+        <v>0.89</v>
       </c>
       <c r="K2" s="4" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="L2" s="4" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="M2" s="4" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="N2" s="4" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="O2" s="4" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="P2" s="4" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="Q2" s="4" t="n">
         <v>1.2</v>
       </c>
-      <c r="L2" s="4" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="M2" s="4" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="N2" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="O2" s="4" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="P2" s="4" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="Q2" s="4" t="n">
-        <v>1.11</v>
-      </c>
       <c r="R2" s="4" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="S2" s="4" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>20.44</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="Y2" s="4" t="n">
         <v>0.31</v>
       </c>
-      <c r="S2" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="T2" s="4" t="n">
-        <v>18.61</v>
-      </c>
-      <c r="U2" s="4" t="n">
-        <v>3.53</v>
-      </c>
-      <c r="V2" s="4" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="W2" s="4" t="n">
-        <v>2.29</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>0.32</v>
-      </c>
       <c r="Z2" s="4" t="n">
-        <v>1.99</v>
+        <v>2.22</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.04</v>
+        <v>1.13</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.93</v>
+        <v>1.03</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>1.12</v>
+        <v>1.21</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.44</v>
+        <v>1.54</v>
       </c>
       <c r="AE2" s="4" t="n">
         <v>0.33</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>3.49</v>
+        <v>3.88</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.63</v>
+        <v>0.7</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.47</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>41717.34722222222</v>
+        <v>44966.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.27</v>
+        <v>1.23</v>
       </c>
       <c r="D3" s="4" t="n">
         <v>0.18</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>3.87</v>
+        <v>3.74</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>3.1</v>
+        <v>3.01</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>5.32</v>
+        <v>5.2</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>2.16</v>
+        <v>2.09</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.45</v>
+        <v>0.43</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.97</v>
+        <v>1.91</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.21</v>
+        <v>1.17</v>
       </c>
       <c r="R3" s="4" t="n">
         <v>0.15</v>
@@ -813,881 +813,361 @@
         <v>0.11</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>20.56</v>
+        <v>19.87</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>3.91</v>
+        <v>3.79</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>2.59</v>
+        <v>2.51</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>2.61</v>
+        <v>2.54</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>1.14</v>
+        <v>1.1</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>1.21</v>
+        <v>1.17</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AE3" s="4" t="n">
         <v>0.12</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>4.86</v>
+        <v>4.74</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.71</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.61</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>41717.35416666666</v>
+        <v>44966.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>1.35</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.96</v>
       </c>
       <c r="D4" s="4" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="R4" s="4" t="n">
         <v>0.1</v>
       </c>
-      <c r="E4" s="4" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="F4" s="4" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="G4" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="H4" s="4" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="I4" s="4" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="J4" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="K4" s="4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="L4" s="4" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="M4" s="4" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="N4" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="O4" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="P4" s="4" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="Q4" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="R4" s="4" t="n">
-        <v>0.09</v>
-      </c>
       <c r="S4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>8.880000000000001</v>
+        <v>15.29</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>1.78</v>
+        <v>2.95</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.58</v>
+        <v>0.97</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1.17</v>
+        <v>1.96</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.6</v>
+        <v>1.02</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.13</v>
+        <v>0.18</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>1.32</v>
+        <v>2.03</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.51</v>
+        <v>0.86</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.47</v>
+        <v>0.77</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.55</v>
+        <v>0.91</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.73</v>
+        <v>1.22</v>
       </c>
       <c r="AE4" s="4" t="n">
         <v>0.08</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>2.59</v>
+        <v>3.86</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.31</v>
+        <v>0.54</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.73</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>41717.36111111111</v>
+        <v>44966.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.52</v>
+        <v>0.34</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.11</v>
+        <v>0.22</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.11</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>3.3</v>
+        <v>0.73</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>2.67</v>
+        <v>0.55</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.19</v>
+        <v>0.26</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>4.47</v>
+        <v>1.53</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.84</v>
+        <v>0.41</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.17</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.19</v>
+        <v>0.23</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.32</v>
+        <v>0.29</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.39</v>
+        <v>0.3</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.38</v>
+        <v>0.09</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.19</v>
+        <v>0.26</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.68</v>
+        <v>0.37</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.01</v>
+        <v>0.25</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="S5" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="Y5" s="4" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="T5" s="4" t="n">
-        <v>17.35</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>3.32</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>0.19</v>
-      </c>
       <c r="Z5" s="4" t="n">
-        <v>2.18</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.97</v>
+        <v>0.21</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.86</v>
+        <v>0.2</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.02</v>
+        <v>0.24</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.39</v>
+        <v>0.3</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0.06</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>4.06</v>
+        <v>1.43</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.61</v>
+        <v>0.13</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.37</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>41717.36805555555</v>
+        <v>44966.53471064815</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>0.57</v>
+        <v>12.49</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>0.4</v>
+        <v>9.109999999999999</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.06</v>
+        <v>0.85</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>1.23</v>
+        <v>27.15</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>0.97</v>
+        <v>22.04</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>0.44</v>
+        <v>9.83</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>2.11</v>
+        <v>35.27</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>15.12</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>0.3</v>
+        <v>6.65</v>
       </c>
       <c r="K6" s="4" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>11.47</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>9.779999999999999</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>13.83</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>8.32</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>141.43</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>27.21</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>9.02</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>18.19</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>9.56</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>7.97</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>7.12</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>8.359999999999999</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>11.41</v>
+      </c>
+      <c r="AE6" s="4" t="n">
         <v>0.43</v>
       </c>
-      <c r="L6" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.04</v>
-      </c>
       <c r="AF6" s="4" t="n">
-        <v>1.96</v>
+        <v>31.73</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>0.22</v>
+        <v>5.03</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>0.51</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>41717.375</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>3.41</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="S7" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>17.92</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AE7" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="AF7" s="4" t="n">
-        <v>4.08</v>
-      </c>
-      <c r="AG7" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="AH7" s="4" t="n">
-        <v>1.41</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>41717.38194444445</v>
-      </c>
-      <c r="B8" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S8" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>4.42</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="AC8" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="AD8" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="AE8" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF8" s="4" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AG8" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="AH8" s="4" t="n">
-        <v>0.39</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>41717.38888888889</v>
-      </c>
-      <c r="B9" s="4" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>3.08</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="L9" s="4" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="M9" s="4" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="N9" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="O9" s="4" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="P9" s="4" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="Q9" s="4" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="R9" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S9" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="T9" s="4" t="n">
-        <v>11.97</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="AC9" s="4" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="AD9" s="4" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="AE9" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF9" s="4" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="AG9" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AH9" s="4" t="n">
-        <v>0.96</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>41717.39583333334</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="M10" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="R10" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="S10" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AC10" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AD10" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AE10" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AF10" s="4" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="AG10" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AH10" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
-        <v>41717.4027662037</v>
-      </c>
-      <c r="B11" s="4" t="n">
-        <v>3.84</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>8.359999999999999</v>
-      </c>
-      <c r="F11" s="4" t="n">
-        <v>6.66</v>
-      </c>
-      <c r="G11" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <v>11.08</v>
-      </c>
-      <c r="I11" s="4" t="n">
-        <v>4.65</v>
-      </c>
-      <c r="J11" s="4" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="K11" s="4" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="L11" s="4" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="M11" s="4" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="N11" s="4" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="O11" s="4" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="P11" s="4" t="n">
-        <v>4.18</v>
-      </c>
-      <c r="Q11" s="4" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="R11" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="S11" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="T11" s="4" t="n">
-        <v>38.39</v>
-      </c>
-      <c r="U11" s="4" t="n">
-        <v>8.26</v>
-      </c>
-      <c r="V11" s="4" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="W11" s="4" t="n">
-        <v>5.41</v>
-      </c>
-      <c r="X11" s="4" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="Y11" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="Z11" s="4" t="n">
-        <v>5.18</v>
-      </c>
-      <c r="AA11" s="4" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="AB11" s="4" t="n">
-        <v>2.21</v>
-      </c>
-      <c r="AC11" s="4" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="AD11" s="4" t="n">
-        <v>3.52</v>
-      </c>
-      <c r="AE11" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="AF11" s="4" t="n">
-        <v>9.9</v>
-      </c>
-      <c r="AG11" s="4" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="AH11" s="4" t="n">
-        <v>3.47</v>
+        <v>11.28</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_285.xlsx
+++ b/DATA_goal/Junction_Flooding_285.xlsx
@@ -444,33 +444,33 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
@@ -655,103 +655,103 @@
         <v>44966.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.78</v>
+        <v>17.78</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.18</v>
+        <v>11.78</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.4</v>
+        <v>4</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>3.78</v>
+        <v>37.83</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>2.99</v>
+        <v>29.94</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.4</v>
+        <v>13.99</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>4.36</v>
+        <v>43.56</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.15</v>
+        <v>21.52</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.89</v>
+        <v>8.9</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.33</v>
+        <v>13.3</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.49</v>
+        <v>14.88</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.55</v>
+        <v>15.46</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.45</v>
+        <v>4.46</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.39</v>
+        <v>13.91</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>1.93</v>
+        <v>19.35</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.2</v>
+        <v>12</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.34</v>
+        <v>3.4</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.22</v>
+        <v>2.23</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>20.44</v>
+        <v>204.37</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>3.86</v>
+        <v>38.64</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>1.28</v>
+        <v>12.84</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>2.53</v>
+        <v>25.29</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.28</v>
+        <v>12.83</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.31</v>
+        <v>3.13</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>2.22</v>
+        <v>22.23</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.13</v>
+        <v>11.34</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>1.03</v>
+        <v>10.33</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>1.21</v>
+        <v>12.14</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.54</v>
+        <v>15.41</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.33</v>
+        <v>3.32</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>3.88</v>
+        <v>38.83</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.7</v>
+        <v>6.98</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.61</v>
+        <v>16.05</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44966.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.73</v>
+        <v>17.3</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.23</v>
+        <v>12.27</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.18</v>
+        <v>1.84</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>3.74</v>
+        <v>37.45</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>3.01</v>
+        <v>30.14</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.36</v>
+        <v>13.61</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>5.2</v>
+        <v>52.03</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>2.09</v>
+        <v>20.94</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.91</v>
+        <v>9.07</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.33</v>
+        <v>13.33</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.5</v>
+        <v>14.98</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.57</v>
+        <v>15.67</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.43</v>
+        <v>4.35</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.35</v>
+        <v>13.53</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.91</v>
+        <v>19.08</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.17</v>
+        <v>11.65</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.15</v>
+        <v>1.54</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.11</v>
+        <v>1.11</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>19.87</v>
+        <v>198.7</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>3.79</v>
+        <v>37.87</v>
       </c>
       <c r="V3" s="4" t="n">
+        <v>12.49</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>25.12</v>
+      </c>
+      <c r="X3" s="4" t="n">
+        <v>13.05</v>
+      </c>
+      <c r="Y3" s="4" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="Z3" s="4" t="n">
+        <v>25.42</v>
+      </c>
+      <c r="AA3" s="4" t="n">
+        <v>11.03</v>
+      </c>
+      <c r="AB3" s="4" t="n">
+        <v>9.960000000000001</v>
+      </c>
+      <c r="AC3" s="4" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="AD3" s="4" t="n">
+        <v>15.61</v>
+      </c>
+      <c r="AE3" s="4" t="n">
         <v>1.25</v>
       </c>
-      <c r="W3" s="4" t="n">
-        <v>2.51</v>
-      </c>
-      <c r="X3" s="4" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="Y3" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="Z3" s="4" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="AA3" s="4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AB3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC3" s="4" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="AD3" s="4" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="AE3" s="4" t="n">
-        <v>0.12</v>
-      </c>
       <c r="AF3" s="4" t="n">
-        <v>4.74</v>
+        <v>47.45</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.9</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.56</v>
+        <v>15.62</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44966.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.35</v>
+        <v>13.45</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.96</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.12</v>
+        <v>1.22</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>2.92</v>
+        <v>29.19</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>2.35</v>
+        <v>23.52</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.06</v>
+        <v>10.59</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>4.24</v>
+        <v>42.4</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.63</v>
+        <v>16.29</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.71</v>
+        <v>7.1</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.04</v>
+        <v>10.4</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.17</v>
+        <v>11.7</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.23</v>
+        <v>12.27</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.34</v>
+        <v>3.38</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.05</v>
+        <v>10.53</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.49</v>
+        <v>14.87</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.91</v>
+        <v>9.06</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.1</v>
+        <v>1.02</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.74</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>15.29</v>
+        <v>152.91</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>2.95</v>
+        <v>29.49</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.97</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1.96</v>
+        <v>19.6</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.02</v>
+        <v>10.21</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.18</v>
+        <v>1.81</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>2.03</v>
+        <v>20.34</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.86</v>
+        <v>8.58</v>
       </c>
       <c r="AB4" s="4" t="n">
+        <v>7.73</v>
+      </c>
+      <c r="AC4" s="4" t="n">
+        <v>9.07</v>
+      </c>
+      <c r="AD4" s="4" t="n">
+        <v>12.22</v>
+      </c>
+      <c r="AE4" s="4" t="n">
         <v>0.77</v>
       </c>
-      <c r="AC4" s="4" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="AD4" s="4" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AE4" s="4" t="n">
-        <v>0.08</v>
-      </c>
       <c r="AF4" s="4" t="n">
-        <v>3.86</v>
+        <v>38.61</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.54</v>
+        <v>5.37</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.21</v>
+        <v>12.15</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44966.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="C5" s="4" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>7.27</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>5.53</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>15.27</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="S5" s="4" t="n">
         <v>0.34</v>
       </c>
-      <c r="C5" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="D5" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="E5" s="4" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="F5" s="4" t="n">
+      <c r="T5" s="4" t="n">
+        <v>32.79</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>7.67</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>4.98</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AD5" s="4" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="AE5" s="4" t="n">
         <v>0.55</v>
       </c>
-      <c r="G5" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="T5" s="4" t="n">
-        <v>3.28</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="Z5" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="AA5" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="AB5" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="AC5" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="AD5" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="AE5" s="4" t="n">
-        <v>0.06</v>
-      </c>
       <c r="AF5" s="4" t="n">
-        <v>1.43</v>
+        <v>14.3</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.13</v>
+        <v>1.25</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.3</v>
+        <v>3.04</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_285.xlsx
+++ b/DATA_goal/Junction_Flooding_285.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44966.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>17.78</v>
+        <v>17.776</v>
       </c>
       <c r="C2" s="4" t="n">
         <v>11.78</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4</v>
+        <v>4.002</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>37.83</v>
+        <v>37.831</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>29.94</v>
+        <v>29.945</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>13.99</v>
+        <v>13.989</v>
       </c>
       <c r="H2" s="4" t="n">
         <v>43.56</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>21.52</v>
+        <v>21.524</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>8.9</v>
+        <v>8.901999999999999</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>13.3</v>
+        <v>13.298</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>14.88</v>
+        <v>14.882</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>15.46</v>
+        <v>15.457</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>4.46</v>
+        <v>4.465</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>13.91</v>
+        <v>13.911</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>19.35</v>
+        <v>19.348</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>12</v>
+        <v>12.001</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.4</v>
+        <v>3.404</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.23</v>
+        <v>2.232</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>204.37</v>
+        <v>204.374</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>38.64</v>
+        <v>38.641</v>
       </c>
       <c r="V2" s="4" t="n">
         <v>12.84</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>25.29</v>
+        <v>25.287</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>12.83</v>
+        <v>12.826</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>3.13</v>
+        <v>3.128</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>22.23</v>
+        <v>22.227</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>11.34</v>
+        <v>11.342</v>
       </c>
       <c r="AB2" s="4" t="n">
         <v>10.33</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>12.14</v>
+        <v>12.137</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>15.41</v>
+        <v>15.411</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.32</v>
+        <v>3.318</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>38.83</v>
+        <v>38.832</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>6.98</v>
+        <v>6.978</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>16.05</v>
+        <v>16.052</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44966.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>17.3</v>
+        <v>17.295</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>12.27</v>
+        <v>12.272</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.84</v>
+        <v>1.841</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>37.45</v>
+        <v>37.446</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>30.14</v>
+        <v>30.138</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>13.61</v>
+        <v>13.611</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>52.03</v>
+        <v>52.032</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>20.94</v>
+        <v>20.942</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>9.07</v>
+        <v>9.067</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>13.33</v>
+        <v>13.329</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>14.98</v>
+        <v>14.979</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>15.67</v>
+        <v>15.673</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>4.35</v>
+        <v>4.348</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>13.53</v>
+        <v>13.535</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>19.08</v>
+        <v>19.085</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>11.65</v>
+        <v>11.652</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.54</v>
+        <v>1.544</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>1.11</v>
+        <v>1.106</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>198.7</v>
+        <v>198.695</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>37.87</v>
+        <v>37.868</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>12.49</v>
+        <v>12.493</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>25.12</v>
+        <v>25.122</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>13.05</v>
+        <v>13.048</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.42</v>
+        <v>2.423</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>25.42</v>
+        <v>25.424</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>11.03</v>
+        <v>11.035</v>
       </c>
       <c r="AB3" s="4" t="n">
         <v>9.960000000000001</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>11.69</v>
+        <v>11.687</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>15.61</v>
+        <v>15.607</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.25</v>
+        <v>1.247</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>47.45</v>
+        <v>47.448</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>6.9</v>
+        <v>6.898</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>15.62</v>
+        <v>15.619</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44966.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>13.45</v>
+        <v>13.452</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>9.640000000000001</v>
+        <v>9.638999999999999</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.22</v>
+        <v>1.223</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>29.19</v>
+        <v>29.186</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>23.52</v>
+        <v>23.522</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>10.59</v>
+        <v>10.586</v>
       </c>
       <c r="H4" s="4" t="n">
         <v>42.4</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>16.29</v>
+        <v>16.288</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>7.1</v>
+        <v>7.101</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>10.4</v>
+        <v>10.401</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>11.7</v>
+        <v>11.703</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>12.27</v>
+        <v>12.266</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>3.38</v>
+        <v>3.382</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>10.53</v>
+        <v>10.527</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>14.87</v>
+        <v>14.874</v>
       </c>
       <c r="Q4" s="4" t="n">
         <v>9.06</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>1.02</v>
+        <v>1.016</v>
       </c>
       <c r="S4" s="4" t="n">
         <v>0.74</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>152.91</v>
+        <v>152.913</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>29.49</v>
+        <v>29.486</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>9.720000000000001</v>
+        <v>9.717000000000001</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>19.6</v>
+        <v>19.598</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>10.21</v>
+        <v>10.215</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.81</v>
+        <v>1.814</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>20.34</v>
+        <v>20.336</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>8.58</v>
+        <v>8.583</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>7.73</v>
+        <v>7.729</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>9.07</v>
+        <v>9.068</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>12.22</v>
+        <v>12.218</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.77</v>
+        <v>0.766</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>38.61</v>
+        <v>38.614</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>5.37</v>
+        <v>5.373</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>12.15</v>
+        <v>12.148</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>3.04</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44966.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>12.49</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>9.109999999999999</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>27.15</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>22.04</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>9.83</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>35.27</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>15.12</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>6.65</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>11.47</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>9.779999999999999</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>13.83</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>8.32</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>141.43</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>27.21</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>18.19</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>9.56</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>7.97</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>7.12</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>8.359999999999999</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>11.41</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>31.73</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>5.03</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>11.28</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_285.xlsx
+++ b/DATA_goal/Junction_Flooding_285.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,103 +967,207 @@
         <v>44966.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>3.36</v>
+        <v>3.363</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>2.18</v>
+        <v>2.181</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.67</v>
+        <v>0.669</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>7.27</v>
+        <v>7.273</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>5.53</v>
+        <v>5.525</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>2.65</v>
+        <v>2.648</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>15.27</v>
+        <v>15.267</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>4.07</v>
+        <v>4.072</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1.73</v>
+        <v>1.732</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>2.31</v>
+        <v>2.315</v>
       </c>
       <c r="L5" s="4" t="n">
         <v>2.92</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>3.01</v>
+        <v>3.007</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.86</v>
+        <v>0.858</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>2.63</v>
+        <v>2.632</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>3.71</v>
+        <v>3.715</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>2.45</v>
+        <v>2.453</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.7</v>
+        <v>0.697</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.34</v>
+        <v>0.335</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>32.79</v>
+        <v>32.793</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>7.67</v>
+        <v>7.666</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>2.43</v>
+        <v>2.429</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>4.98</v>
+        <v>4.977</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>2.49</v>
+        <v>2.491</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.67</v>
+        <v>0.671</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>6.9</v>
+        <v>6.899</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>2.15</v>
+        <v>2.146</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>2.04</v>
+        <v>2.041</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>2.37</v>
+        <v>2.374</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>3.01</v>
+        <v>3.011</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.55</v>
+        <v>0.553</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>14.3</v>
+        <v>14.298</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>1.25</v>
+        <v>1.251</v>
       </c>
       <c r="AH5" s="4" t="n">
         <v>3.04</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44966.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>12.49</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>9.109999999999999</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>27.15</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>22.04</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>9.83</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>35.27</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>15.12</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>6.65</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>11.47</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>9.779999999999999</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>13.83</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>8.32</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>141.43</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>27.21</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>9.02</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>18.19</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>9.56</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>7.97</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>7.12</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>8.359999999999999</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>11.41</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>31.73</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>5.03</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>11.28</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_285.xlsx
+++ b/DATA_goal/Junction_Flooding_285.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,207 +967,103 @@
         <v>44966.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>3.363</v>
+        <v>3.36</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>2.181</v>
+        <v>2.18</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.669</v>
+        <v>0.67</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>7.273</v>
+        <v>7.27</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>5.525</v>
+        <v>5.53</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>2.648</v>
+        <v>2.65</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>15.267</v>
+        <v>15.27</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>4.072</v>
+        <v>4.07</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1.732</v>
+        <v>1.73</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>2.315</v>
+        <v>2.31</v>
       </c>
       <c r="L5" s="4" t="n">
         <v>2.92</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>3.007</v>
+        <v>3.01</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.858</v>
+        <v>0.86</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>2.632</v>
+        <v>2.63</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>3.715</v>
+        <v>3.71</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>2.453</v>
+        <v>2.45</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.697</v>
+        <v>0.7</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.335</v>
+        <v>0.34</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>32.793</v>
+        <v>32.79</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>7.666</v>
+        <v>7.67</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>2.429</v>
+        <v>2.43</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>4.977</v>
+        <v>4.98</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>2.491</v>
+        <v>2.49</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.671</v>
+        <v>0.67</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>6.899</v>
+        <v>6.9</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>2.146</v>
+        <v>2.15</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>2.041</v>
+        <v>2.04</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>2.374</v>
+        <v>2.37</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>3.011</v>
+        <v>3.01</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.553</v>
+        <v>0.55</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>14.298</v>
+        <v>14.3</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>1.251</v>
+        <v>1.25</v>
       </c>
       <c r="AH5" s="4" t="n">
         <v>3.04</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44966.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>12.49</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>9.109999999999999</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>27.15</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>22.04</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>9.83</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>35.27</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>15.12</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>6.65</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>11.47</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>9.779999999999999</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>13.83</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>8.32</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>141.43</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>27.21</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>18.19</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>9.56</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>7.97</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>7.12</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>8.359999999999999</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>11.41</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>31.73</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>5.03</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>11.28</v>
       </c>
     </row>
   </sheetData>
